--- a/data/hotels_by_city/Dallas/Dallas_shard_356.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_356.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="984">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jerry K</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Peter N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r568347041-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Debbie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r555414530-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>RLeave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r551380670-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>Got in late the night before, hotel was fine, got 5 hours sleep. Tonight was supposed to be the night to get 8 hours, but the desk called me at 11:20PM because they needed to run the credit car again. To be fair, they did remind me yesterday when I did not have my wallet, but they have a card on file, could have left a note on my door, or asked at check out. Instead they woke me up at 11:20PM to come down to the desk to run a credit card when they had one on file. Hotel is OK, but waking a guest up between 9 at night and 7 in the morning for anything but a fire is not OK. I have about 100 stays a year all over the country, and a call near midnight is unacceptable. The last time it happened was a few months ago and ... it was a Holiday Inn! Goodbye.More</t>
   </si>
   <si>
+    <t>Karri F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r522609836-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Marshall J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r517960092-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>Called the property and spoke with vickia. family is staying at this property due to being in town for a funeral. i work at a holiday inn so i know how flexible the front desk system works. me or my family will not be back to this property due to this issue we had.  NEXTMore</t>
   </si>
   <si>
+    <t>Tina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r507485142-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r506168628-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>We made an overnight stop while in town car shopping. Staff was very friendly and went out of their way to make sure our stay was great. Room was clean and quiet despite several youth there for a basketball tournament. Breakfast was standard HI menu but was hot and attendant constant,y replenished anything that was low. Great stay.</t>
   </si>
   <si>
+    <t>mylesrn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r491393084-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>I liked the hotel reception and lobby. The staff was very pleasant. We didn't have time to eat at the breakfast buffet, but it looked to be fairly standard. My biggest concern was the rooms were so noisy. We could hear every footstep of the people who were staying right above us. And I mean every step! The walls are paper thin. I'm a light stepper and the TV in our room shook each time I walked past it. It's conveniently located, so if you can get past the noise, then you'll be ok.More</t>
   </si>
   <si>
+    <t>TRAVELWORLD110465</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r484761421-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>marguerite7452</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r477844467-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Sharron L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r473719600-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>I stayed at this property overnight on a one-day trip to Dallas.  The hotel staff was pleasant and friendly, however the hotel looked worn.  The elevators and walls were marked and dirty, and looked as if they had not been cleaned in a while. There was dust on the lamps in the room and we had to ask for a set of clean sheets.  Again, the staff was super but they are selling a "lemon". This hotel needs a good cleaning. Start with the lobby and all the common areas, especially the metal panels in the elevator.More</t>
   </si>
   <si>
+    <t xml:space="preserve">Dwkerux </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r463286599-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>This is the worst Holiday Inn Express I have stayed in. The staff was nice and the breakfast was descent. However here is a list of a few of the issues I noticed :Shower control very loose on the wall. Also the tub spout is very loose. A plumber needs to open the wall on the other side and secure the plumbing. Wall paper coming down in bathroom, tiles loose, two tiles raised higher than others possible tripping hazard. Reostat on Wall missing knob. This was a two bedroom suite, but there was only 3 bath towels. The fridge wasnoisy and very wobbly. Stuffed leather chair's right arm was collapsed and chair a bit wobbly. The Pool closedThere was a Hair in the microwave The entry floor squeaky and a couple of the ceramic tiles actually move under your feet. Carpet needs cleanedSeveral light bulbs were burned out   (at least 3)I would not recommend this Holiday Inn Express.  More</t>
   </si>
   <si>
+    <t>ohrhilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r457905845-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Mddhardin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r457425428-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -477,6 +522,9 @@
     <t>Nice hotel. Spacious clean room. Was able to park our 18 wheeler right outside the hotel. Really enjoyed our time out of our truck. Used the laundry facilities, really convenient.  The staff was very helpful and very accommodating at this hotel.  Would recommend this hotel. More</t>
   </si>
   <si>
+    <t>megan74manders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r451575988-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>We were greeted by Jennifer and she was so pleasant and friendly and informative about the hotel and places in the neighborhood.our room was big and clean. The bed and bedding was fantastic. The towels are so soft and clean and great fresh breakfast. There really is no downside to this hotel. Since coming here from Australia I have stayed in a few hotels and this has been my best experience so far. Thank you Jennifer</t>
   </si>
   <si>
+    <t>Kanesha R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r441395963-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Marilyn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r433292917-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>btbarryt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r414648096-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>My wife and I stayed September 2 &amp; 3. The in room safe didn't work, the ice machine was broken and the juice machine In the breakfast area was broken. We are frequent travelers and HI platinum club members. I made management aware of the issues. This one does not meet expectations.More</t>
   </si>
   <si>
+    <t>Candy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r410515807-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -579,6 +639,9 @@
     <t>Hotel was beautiful and clean at the entrance, and check in desk.  The room was nice, but there was mold on the tub. All they need to do is spray with a little bleach to get rid of the mold. The breakfast was wonderful and the Desk Clerks were extremely Helpful, Polite, Respectful, and Smiling!!More</t>
   </si>
   <si>
+    <t>MrsParsnip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r405482288-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -594,6 +657,9 @@
     <t xml:space="preserve">Wonderful room, immaculately clean spacious and altogether a real treat to stay in  ... Big shout out to Dawn who made our stay so enjoyable. Always smiling and happy, she went out of her way to help and advise us! Thanks Dawn, you're a real gem ! </t>
   </si>
   <si>
+    <t>Cindy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r396976354-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -621,6 +687,9 @@
     <t>I have stayed here several times now. It is always clean, quite, and relaxing. Has very nice, modern decor in the rooms. Beds are very comfortable. Downstairs in the lobby and hallway windows have nice plantation shutters. Good variety of choices for the free included breakfast. Easy access and plenty of parking. Close to lots of restaurants.More</t>
   </si>
   <si>
+    <t>ptottraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r394753533-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -642,6 +711,9 @@
     <t>We are there for a spiritual retreat. There staffs are out of this world, so caring and took care of us before we ask for it. Great location, clean rooms, more than excellent service. We enjoyed more than exactions .More</t>
   </si>
   <si>
+    <t>Santanu P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r388543886-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -666,6 +738,9 @@
     <t>We recently organized a spiritual retreat where more than 400 people attended the 3 day event from around 8 countries ! We could not have imagined such an event without the staff and management of Holiday Inn, Desoto. Every single team member from the venue made this international event a huge success! From food to guest services, event management to logistics, they went the extra mile to ensure nothing falls short of excellent. If you have any event in mind of this scale and you are looking for a convention center with rooms and excellent service - This is it ! Holiday Inn, Desoto TXMore</t>
   </si>
   <si>
+    <t>Drfoodlover2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r387523331-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -684,6 +759,9 @@
     <t>The person who checked me in was unenthusiastic and didn't seem to care whether I stayed or not. The room was nice but from eleven o'clock until after one AM someone in the room directly above us let their elephants loose in the room. They made noise for three hours. It was a very unpleasant night. Seems like someone would monitor the noise a little better than that, after all isn't that what a hotel is for is to mainly sleep in?The breakfast was less than average except for the cinamon rolls which were delicious.More</t>
   </si>
   <si>
+    <t>cofgolf172001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r384273833-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -706,6 +784,9 @@
   </si>
   <si>
     <t>Solid property, location and amenities.  Breakfast was good as was the pool.  One of the nicer HIE properties and seemed to be the best choice in Desoto.  Friends stayed just down the street at the Clarion and had a much different experience.More</t>
+  </si>
+  <si>
+    <t>Mike C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r368366803-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
@@ -737,6 +818,9 @@
  I came here on business for a twenty-two night stay. On the second day here, I cut my thumb at work and that night noticed that I had left a small bloodstain on one of the pillowcases. Whenever I travel for business I only have my room cleaned every few days because I work twelve hour days and really don’t spend that much time in the room. After my fourth night I decided to take my “do not disturb” sign off my door to have my room serviced. I had left the card from the nightstand that states to put it on the bed if you want your linen and towels changed, with a three dollar tip. That night when I returned from work and went to bed, I noticed that the bloodstained pillowcase was still there. Thinking that maybe have been an oversight I just let...After arriving on April 6, 2016 from my all-day flight from Seattle I wanted to take a shower before I went to bed. Upon entering the shower I found a HUGE BOOGER smeared on the shower wall. I was too tired to deal with changing rooms and moving all my stuff or waiting on housekeeping so I cleaned the tub and shower myself. After the shower I was brushing my teeth and found fingernail clippings on the vanity. I just took the hair dryer and blew them off and then cleaned the vanity.  I came here on business for a twenty-two night stay. On the second day here, I cut my thumb at work and that night noticed that I had left a small bloodstain on one of the pillowcases. Whenever I travel for business I only have my room cleaned every few days because I work twelve hour days and really don’t spend that much time in the room. After my fourth night I decided to take my “do not disturb” sign off my door to have my room serviced. I had left the card from the nightstand that states to put it on the bed if you want your linen and towels changed, with a three dollar tip. That night when I returned from work and went to bed, I noticed that the bloodstained pillowcase was still there. Thinking that maybe have been an oversight I just let it go.  After a few more nights, again I placed the card on my bed and again with another three dollar tip. Before I left I took a blue pen and made a small mark on the seam of the fitted sheet. Upon returning that night I found my bed made, with the same ink-marked fitted sheet and bloodstained pillowcase. I had even emptied the trash myself and took it to the dumpster in the parking lot that morning before I left. I was upset and at the same time curious as too just how long this could go on.  After my twelfth night, I again left the card on the bed with another three dollar tip. And again, when I returned I found the same fitted sheet and bloodstained pillowcase. This was turning into a sort of “science-project” gone wrong.  The morning after my sixteenth night, I was lying in bed and noticed across the room the thick layer of dust on the tables and nightstands. I could take it no longer. I took all the linen off my bed, waded it up in a ball and placed the card on top (no tip this time and again I took the trash out to the dumpster). I figured it would be easier to put clean ones on and I would finally get clean linen. When I returned that night THEY HAD PUT THE SAME SHEETS AND PILLOWCASES BACK ON THE BED!!!  I had doodled across the tables and nightstands in the thick dust before I left and my doodles and the thick dust was still there. There was only one towel, one hand towel and no bath mat. The sink and faucet still had trimmings all over from when I trimmed my beard that morning. I called the front desk and spoke with Dawn about the towels and she brought two old towels that should be rags up to me. At that time I explained about the linen not being changed for the past sixteen days and that I was upset about it. I explained that I wanted to speak with the manager and she said she would have him/her call me. Dawn did offer to have somebody clean the room the next day and as I gave her that “are you serious?” look, I explained that I didn’t want anybody in the room the rest of the time I was staying there. The next morning (day 17) before work, I woke up at 4AM and washed the linen and cleaned the room myself. This room in my opinion is probably the cleanest than it’s been since it opened. That was last Friday April 22, today is Thursday 29 April and I never received a call back from anybody. This is par for their staff, I asked Dawn about two weeks ago for some coffee for the coffee maker in my room. After rummaging around in the room behind the front desk for a few minutes, she came out and said she couldn’t find any but would have somebody bring some up to my room. That never happened. I travel often for work, probably staying in twelve to twenty different hotels each year for the past ten years. Along with my time twenty-two years in the army I would estimate that I have stayed at over four hundred hotels across the United States and other countries. Without a doubt, The Holiday Inn Express in Desoto, TX is the nastiest, most disgusting place I have ever stayed. Think about this if you’re planning a stay here. Did they change the linen and towels before your arrival? How many people have slept on that linen and used those towels without being washed and what were they doing on/with them? The card you place on the bed to have the linen changed says they’re trying to conserve water but this is absurd. They’re charging $129 to $159 a night to stay in this filthy, nasty, disgusting place?More</t>
   </si>
   <si>
+    <t>pestw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r364261410-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -761,6 +845,9 @@
     <t>It was clean and pretty std  i like that for business trip however the internet did not worked my whole stay this should be a PRIORITY to get fixed right away whoever it did not happenned. Lady in the front desk said it was not even working for them.More</t>
   </si>
   <si>
+    <t>ChubbaHill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r358323394-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -788,6 +875,9 @@
     <t>Friendly, helpful staff. Clean room and typical HIE breakfast. Parking can be iffy and I'm not clear on why the rates at this location are higher than surrounding areas though. A few $$ is one thing but $30+ per night versus another property 10-12 mins away is too much of a difference.More</t>
   </si>
   <si>
+    <t>Evan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r350949870-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -806,6 +896,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Marcia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r347601981-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -824,6 +917,9 @@
     <t>We traveled to DeSoto, Texas for a high school sporting event.  We normally stay in IHG hotels for such events.  Holiday Inn Express Hotel &amp; Suites here was wonderful.  At check-in, Nakeisha was pleasant, welcoming, and friendly.  She took the time to explain the breakfast hours and foods that would be available, gave us a list of nearby restaurants and told us to call her if we needed anything after going to the room.   The room was super clean, as was the entire common area of the hotel.  There was also a very nice scent throughout the hotel.  It smelled like a spa.Each morning, we were greeted by friendly smiles and "good morning" wishes from the front desk.The only reason I did not give a perfect rating has nothing to do with the staff.  They were perfect!!  The only problem was with the structure of the building!  You could hear the guests above you walking, using the restroom, rolling suitcases, etc.  Even when you were in the hallway:  you can hear people walking above you.  (So, we were kept awake when the guest above us stayed up late and woke up early.)  I've never had this problem at any other hotel...and we travel many times throughout the year.Check-out was just as awesome as check-in!  The front desk wished us well on our journey home.  Kudos to the staff!!More</t>
   </si>
   <si>
+    <t>Yazah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r337947219-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -851,6 +947,9 @@
     <t>I am such a fan of this chain maybe simply for the pancake maker.  We have stayed all over the country and they all vary.  This location had brown bananas soft apples no danish silver dollar pancakes when they normally fill the entire plate.  The trash door was caked in filth I could open the door to throw away my plate because it was too filthy to touch. The room was very dusty. The tray under the coffee maker had coffee spilled on it.  When I moistened a napkin to wipe it off the napkin was dark brown.  There was trash and hair in the bathroom.  I hate seeing this and there's no reason not to clean your motel.  The bed was comfortable.More</t>
   </si>
   <si>
+    <t>Stacey H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r336533651-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -875,6 +974,9 @@
     <t>There's nothing here that makes me say this place deserves 5 stars because it's not a 5 star resort. It's equivalent to a Best Western or Ramada Inn. Hot breakfast is good. Front desk staff is friendly. Beds are comfortable. Maid service and maintenance are in need of help. The maid only cleaned our room 50%; one bed was made, one wasn't, the dirty linens were not removed, nor were the coffee supplies refilled. It's not a new hotel; it's partially renovated. The soft goods were replaced (except for the curtains), but the hard goods were not. Cheap renovation. One night we lost sleep because the walls are so thin we could hear the people above us walking around; and yes we did complain. I'd stay again if the price was less than $80/night. More</t>
   </si>
   <si>
+    <t>harry1012015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r327724940-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1004,9 @@
     <t>This is a typical Holiday Inn Express, but somewhat isolated. It's on an Exit of I35E that has a Waffle House, a 7/11 Convenience Store and a Cracker Barrel (next door). Nothing else around. It's clean with very friendly help. A lot of truckers and workers staying there. The Cracker Barrel next door is the least crowded one I've ever seen. I had business in Desoto, so it was convenient to stay here in South Dallas, but there's absolutely no way that I'd ever stay here again, absent a  business connection.One odd thing: When I checked in, the "key-making machine" had just broken. I had to be escorted to my room by hotel staff every time I wanted access, for over 24 hours. Not cool. Breakfast was also average, although the cinnamon rolls were outstanding, but that was it. The HD TV was pretty good also. Fitness room very poor.I wouldn't mind staying here again, but only if I had business nearby.More</t>
   </si>
   <si>
+    <t>AK2Borneo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r324503323-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1031,9 @@
     <t>Check in was smooth and the staff friendly.  Room is clean and well kept.  Breakfast is as others described, from a carton or box but it is free....Fitness center is essentially non existent, small and half the equipment doesn't work and out of service.  Treadmill quits in middle of running, informed front desk but worker at that time could care less.  No eye contact and a huff when he went to check first time, second time said would call maintenance to check but nothing else he could do.  Wasn't so much the message I understand stuff breaks it was the attitude of the staff.  Rest of staff has been great.  If your looking for a place to put your head it's okay, if planning to exercise move on equipment doesn't work.More</t>
   </si>
   <si>
+    <t>MarioBordignon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r322258214-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1059,9 @@
   </si>
   <si>
     <t>Basic! Hotel room is ok, but nothing else. Breakfast is also basic, hotel location is ok, close to I35, not so far from Dallas Downtown. If you must to stay in Desoto, can be an alternative. But I would look for something else before pick this one.More</t>
+  </si>
+  <si>
+    <t>Quentin A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r318929469-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
@@ -983,6 +1094,9 @@
 All in all this experience was a little disappointing compared to past experiences.  I think we can agree that it has been the exception and not the rule so we'll probably...Let me preface this by saying that we've stayed at Holiday Inn Express many times.  In fact it's our preference of a reasonably priced hotel. This particular HIE was a touch disappointing. My family is 6 strong (4 kids) so we need larger accommodations. We had to step up to a King Suite which ended up running right at $180 after fees and taxes.  I thought that was a bit pricey for what I'm used to.  The room was spacious with a kitchenette and two king size beds but,  we were doing little more than sleeping and showering in the morning,  so we didn't really get the opportunity to use most of that space.  The check in/out process was smooth and the staff were friendly.  Probably the biggest disappointment of all was the bathroom.  It was tiny!  I expected more for the price I paid.  The shower head could have used some lime away... Water was spraying this way and that.  The complementary breakfast was so-so.  Eggs from a carton,  a pancake machine that produces rubbery pancakes,  amongst other hotel standard faire is what you can expect. The biscuits and gravy were decent and they had fresh baked cinnamon rolls that were good. The coffee was decent as well. All in all this experience was a little disappointing compared to past experiences.  I think we can agree that it has been the exception and not the rule so we'll probably stay again with HIE. More</t>
   </si>
   <si>
+    <t>Yoli1992</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r291905518-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1118,9 @@
     <t>I stayed at this hotel while attending a funeral in Dallas, Texas.  The hotel is very clean and the front office staff were all very nice helpful and friendly especially Dawn.  I actually interacted with Dawn via phone before my arrival and she was just as pleasant if not even more in person.  Check in was a breeze.  The room was very spacious and clean.  The bathroom is a little small but it was no problem.  The room has a microwave as well as a mini fridge.  The hotel offers a continental breakfast each morning which was a nice perk when you are travelling with children as well as parents that need to eat to take medications.  The beds were nice and comfortable as well as the pillows being you have a choice of soft or firm.  I would definetely stay at this hotel again whenever I am in the area.More</t>
   </si>
   <si>
+    <t>Weazy123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r289976804-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1139,9 @@
     <t>We arrived rather late &amp; there were only 2 rooms left, so we were very happy to be able to stay there that night! We were exhausted from driving for hours hours &amp; just wanted to sleep!! The staff were very welcoming &amp; helpful! We were in town to purchase inventory for our store &amp; had a 24'+ trailer behind our truck. The lady gave us good instructions on where we might find a place to park that would be in a well lite area. She was also very helpful looking up our frequent guest information &amp; just made us feel welcomed. Sometimes, especially when it is real late you have chick in employees who could care less, not this lady, you could tell she truly cared about us. The room was just like all the other Holiday Garden Inn's we've ever stayed at, very big, comfortable &amp; nice! You just can't go wrong if you pick this brand of hotels.More</t>
   </si>
   <si>
+    <t>IEBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r276267459-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1160,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Senor_Chang_No1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r274456849-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1187,9 @@
     <t>... it would also have been good if the room had been taken care of every day. Just a 3 night stay for us. Rooms were clean, the staff friendly and conveniently located in an area with restaurants and shops. After returning after 3 pm into our room the room hasn't been taken care of by housekeeping. Not too happy about that. We wanted to relax after being out and about. Instead of having the room cleaned we just got new towels. The next morning there was also noise in the hallway. There was remodeling going on in almost all rooms. One of the workers asked if we could leave the room before checkout time.More</t>
   </si>
   <si>
+    <t>oakley963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r269908818-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1214,9 @@
     <t>First of all, the room was nice. The front desk nice &amp; accommodating. The horrendously loud music past 11:00 pm, not so much! This was the Host Hotel for a gymnastics meet on Sunday. So we had a 10 yr old &amp; a 5 yr old that had to be in bed before 9:30 pm &amp; up at 6:00 am!At least warn parents with children that there will be a party/band on the bottom floor that resonates through your pillow to the 3rd floor...so we can stay at another hotel!!!!More</t>
   </si>
   <si>
+    <t>Zygret Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r269810450-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1244,9 @@
     <t>Would have been a good place if it wasn't for the reeking perfume that gets into everything.I've stayed in 3 HIEX's and one Holiday Inn in the last 6 months.  All reek of perfume.  Must be a corporate thing. Otherwise it's a nice place.  The left handed water faucets were a bit strange and hard to use. Did not care for the high ceilings either.I won't stay in another Holiday Inn or HIEX.  Not worth having to put my luggage and contents  in the Texas sun for several days to air out.  No other hotels are this bad.More</t>
   </si>
   <si>
+    <t>MzDeeDee2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r268695507-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1262,9 @@
     <t>My boyfriend picked this hotel when went to Texas for a wedding.  The hotels is very nice. Rooms were clean and huge! We had a King Suite with a jacuzzi tub. Room was cleaned daily and staff was super nice. The only thing I didn't like was it was far from most tourist spots meaning we had to drive at least 20-30 minutes to get anywhere. Also breakfast was horrible. Its free so you can only complain so much but im glad it was. We ate breakfast one day and skipped the rest of the days we stayed there.</t>
   </si>
   <si>
+    <t>Toni S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r266464579-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1280,9 @@
     <t>We stayed here to go to the Scarborough Faire Renaissance Festival. Breakfast was hot &amp; inviting. Many stores &amp; restaurants nearby. Despite the fact that they had a meeting going on, it was very quiet. Will stay here again definitely.</t>
   </si>
   <si>
+    <t>BigDaddyWied</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r266432726-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1298,9 @@
     <t>Stayed at the Holiday Inn Express, Desoto. Approximately a 25 minute drive from Dallas Love Field during the evening. Clean and comfortable hotel. All of the staff were extremely polite and helpful during my stay.My room was comfortable and the bathroom was clean with all of the amenities I needed. The pillow options at Holiday Inn allow me to get as close to my own personal pillow as possible with extra ones for strategic placement for comfort. My only complaint was that the room AC was noisy when on. They did have a ceiling fan, which is a nice touch, but the pull would clang against the light fixture if the fan was set too fast (adjustable on the wall). Great room breakfast was as good as any of the Holiday Inn Expresses that I have stayed at. Fitness room was less than adequate for me, however the pool looked very inviting but I did not get a chance to enjoy it.If you are an exerciser, there is a very satisfactory Gold's Gym Express 2 miles south that costs $5/ day.More</t>
   </si>
   <si>
+    <t>Hank3327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r262875350-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1322,9 @@
     <t>We were in DeSoto, TX for a football combine at the local high school.  We stayed in a standard room with two queen beds.  The hotel is located just far away from the highway that you don't hear the traffic noise.  I found the room clean and the standard stuff (shampoo, etc.) to placed properly in the room.  The staff were courtesy and helpful with finding dining and near by drug stores.  The room was very comfortable (good mattress) in every way.  If you visiting Dallas for other events and don't want to in downtown area this hotel on I-35E which provide easy access to two freeways that take you into the downtown area.More</t>
   </si>
   <si>
+    <t>Photokim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r262165933-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1343,9 @@
     <t>Me and my husband are platinum elite IHG members. We always choose holiday inn. We where traveling back home to Arkansas from San Antonio. After a fatality accident on a freeway it took us almost 6 hours to get to San Antonio to Desoto. We were exhausted. We had just stayed at a holiday Inn in San Antonio for 3 nights and the beds were a nightmare. We were really hoping that the beds were at least sleep able. They were amazing!!!! Our room 422 was very clean and extremely comfortable. It was the best night sleep we had all week. Morning came and we ate the express start breakfast. It was pretty average. I ended up eating a cinnamon roll and coffee. It was good. I was impressed with the girl who ran the breakfast in the morning. I saw her helping people and really trying to accommodate everyone. If my travels ever bring me this way again I would definitely stay here again. Good job holiday Inn express! More</t>
   </si>
   <si>
+    <t>LeeB7700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r261915779-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1361,9 @@
     <t>We booked this hotel over a month in advance with their special events planner (who conveniently quit yesterday). We were staying with family for a BMX race. The hotel calls us a day in advance and says they overbooked and they have no room for us. The manager Christopher would not return calls and was very apathetic. We were left scrambling to find a hotel away from family. This was terrible service.</t>
   </si>
   <si>
+    <t>sumonesvaca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r254475798-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1385,9 @@
     <t>Overall, the stay was nice.  The staff were friendly.  The room was clean.  The breakfast was standard and they had someone available making sure the counters stayed clean and food was replenished as needed.  Only reason(s) I did not give it a 5* are: 1. (Location)  coming from DFW - Garmin had me go through a getto to get there and it made me it was closer than I preferred.  2. (Noisy), I could hear other people slamming doors, banging on walls.  I suggest they find a way to make those slamming doors quieter, maybe some fabric on the frame,  3. The room did not have a closet or bar for hanging clothes.  I don't know.  Not something, I as a person who travels often am accustomed to.   I switched to another hotel the next day.More</t>
   </si>
   <si>
+    <t>Staceyja68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r237907147-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1415,9 @@
     <t>I would like to say, thank you to Ms. Dawn and Ms. May! For Great customer service for my business trip, they made me feel like i was at home! THANK YOU SO MUCH AGAIN, and the young man yesterday morning who printed off my boarding pass!More</t>
   </si>
   <si>
+    <t>Ayazie1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r237247533-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1436,9 @@
     <t>This is an amazing hotel and the service is extremely amazing! The staff is fantastic very courteous as well as being attentive to the guest. I will definitely return for more awesome treatments.  Ms. Dawn and Ms. May truly showed me and how guest should be treated.More</t>
   </si>
   <si>
+    <t>JJohnson06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r236766424-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1466,9 @@
     <t>My Boyfriend and I stayed here from a Thursday thru Sunday. At check in the Front Desk personel was very nice and friendly. But, the problem that we had was no one never came to clean our room.  When we asked for extra towels the housekeeping personel stated that they we washing and we will have to wait for them to dry and once they are ready she will bring some to our room.  When we got back we had no towels.  Had to go to the front desk and they said that they will call housekeeping to bring some up. Other than that the bed was comfortable and the pillows as well. I like that they had a fridge, microwave, and a safe in the room.More</t>
   </si>
   <si>
+    <t>jaggsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r235262006-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1331,6 +1493,9 @@
     <t>We stayed here a year ago and I rated it "average". This year we came back for just one night and everything has improved - we had a wonderful stay!The room was very spacious - we had a king bed and a pullout couch. LOTS of room - so nice!Plus it had a mini kitchen area with microwave, fridge, sink and cupboard space.The room was very quiet (except for some walking above us in the morning) and the bed was very comfortable.The breakfast has definitely improved - they even had our favorite brand of yogurt! So nice to see turkey sausage and healthy cereals as well.We will most definitely consider staying here again.More</t>
   </si>
   <si>
+    <t>Linda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r233695079-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1520,9 @@
     <t>The Holiday Inn Express in Desoto, Texas was clean and quiet with a friendly, helpful staff.  It is conveniently located to attractions in the Dallas/Fort Worth area without being in the middle of traffic and stress.  It was nice to have a Cracker Barrel restaurant right next door. Rooms had an easily controlled A/C system that took away the humid, damp cold of so many motel rooms. The front desk staff were very accommodating. The desk lady said the workers were happy because they loved their jobs and that was why they worked so hard to make the atmosphere at this motel so positive.  I would go back just for Ms Shiajuanna's and Angel's friendly faces at the breakfast bar.  They worked overtime to make breakfast a clean, well-stocked, and friendly way to start the day.More</t>
   </si>
   <si>
+    <t>Nanique22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r225937092-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1547,9 @@
     <t>Reception was great! The young lady Tiera was very helpful and knowledgable. She helped us out a lot. Hotel was very clean and looked very nice inside and out. The location was great right off the interstate easy to find. The staff overall were very friendly and helpful. Great place to stay!More</t>
   </si>
   <si>
+    <t>DaiJam2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r222222900-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1571,9 @@
     <t>A very good hotel throughout! Fresh and clean everywhere, good rooms well-appointed. Excellent pool and pool area, ample breakfasts and plenty of parking spaces right outside the front door. However, I've pushed this up to a 5 star rating from a very good 4 because the reception staff were so welcoming, friendly and obliging! Nothing was too much trouble for any of them - looking after cases, giving directions or just chatting about the weather. Well done ladies, the best welcome I and my family have ever received at a hotel!More</t>
   </si>
   <si>
+    <t>villacherries</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r216123562-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1601,9 @@
     <t>First stay at a Holiday Inn Express and it was worth it. Staff was very friendly. The room was spacious and clean. The pool was a decent size for my kids to play in. It was clean with a nice little touch of a waterfall added. The breakfast was good which included an automatic pancake maker that makes two pancakes for you with a touch of a button! The exercise room was clean but on the small size. The hotel is located near the highway which might keep some guests awake but it didn't affect me - I slept soundly. I would stay here again.More</t>
   </si>
   <si>
+    <t>Carol B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r215717140-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1622,9 @@
     <t>Booked this hotel last-minute because of a power outage at our home. Cannot say enough good things about the experience! Received outstanding guest service from Raven, Tierra, and Dawn. Difficult situation was turned into a fun mid-week mini vacation for my husband and myself.We stayed in a suite with two queen beds. Beds were super comfortable and we slept like a dream. Hotel was quiet and we did not hear any noise from other guests. Lighting in room was well-thought-out and we had lots of options, including a ceiling fan. Bathroom is small, but water in shower was very hot (loved it!) and there was plenty of room for what we needed. Only downside to the room is that several tv channels did not function ("tuning error"), which I blame on Time Warner Cable, not on the hotel itself.Pool area is functional but not pretty, but is clean and well-maintained. Only complaint we had was that the water seemed to be heated, and on a 90+* day, it would have been nice for the water to be cooler.Again, received amazing service from all the staff at this location and would definitely stay here again if we need a home away from home.More</t>
   </si>
   <si>
+    <t>Deb601954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r213083598-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1652,9 @@
     <t>We had a family reunion at this property onJune 27, 2014. The ballroom was great, very large. Everything was great until I checked into my room. I had a two bedroom suite. The carpet was stained with spots all over the room. Carpet dirty. Also my family had problems checking out because they were over charged for their stay and had to get the fees corrected. It made them late for their departure to the airport.  Front desk was very helpful in correcting the mistake.  Food was great. Also the water in the spa was cold.More</t>
   </si>
   <si>
+    <t>tboi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r211725150-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1490,6 +1673,9 @@
     <t>Wow is all I can say! From the moment we walked in we felt nothing but welcome.Ms.Dawn greeted us with a warm smile,and was very friendly!! At night there was another young lady who was just as friendly.The hotel was nice and inviting,and our room was spotless.The bed was nice and cozy,and pillows are soft. We never had to call for towels,they kept us well stocked.Breakfast was a typical continental hotel breakfast,although we did enjoy hot cinnamon rolls and hot make it yourself pancakes! Ms.Dawn even helped me to figure out where to go on such a rainy day,and I wasn't disappointed! I would definitely go back to this hotel!!More</t>
   </si>
   <si>
+    <t>Trish P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r206110169-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1697,9 @@
     <t>We arrived to find an upset male at the Front Desk that had obviously not made his own reservation,  since he could not provide the correct information for Jessica (Front Desk Agent), he took it out on her - she was incredibly nice &amp; patient - When she was finally able to assist me,  an EXTREMELY rude guest stepped in front of me as I was trying to pay for my room (his key stopped working) - ONCE AGAIN,  Jessica handled the situation with great professionalism &amp; tact - she apologized numerous times,  kept a smile on her face &amp; never missed a beat (asking what brought us into town) - I've been with the Holiday Inn for over 16yrs &amp; I've seen it all!   I know the limits that we get pushed to &amp; was INCREDIBLY impressed with Ms. Jessicas work ethics!   Great Job H.I.E.!!!More</t>
   </si>
   <si>
+    <t>Shekyllah1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r205907412-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1715,9 @@
     <t>First time staying at a holiday inn and I loved it. Customer service is amazing, location is very convenient, their food is good. The lady at the front desk is very sweet and informative and ready to help with anything you need. Their rooms are very cosy and clean. This place appears to be really busy and packed but the service is still exceptional. It was overall a great experience and I would most definitely spend a night here again.More</t>
   </si>
   <si>
+    <t>Aud8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r199899722-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1550,6 +1742,9 @@
     <t>My family and I were in a bind with all the hotels booked up for the weekend. Linda and Dawn at the front counter, went above and beyond for us. We were able to get a room.  They always had a smile and used eye contact, and made us feel welcome. Their customer service was exceptional. Thank you so much for the quality service. More</t>
   </si>
   <si>
+    <t>MrsGalbreath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r198680343-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1766,9 @@
     <t>The room we stayed in was very clean. I didn't have any complaints (which surprised my husband). We will stay at this hotel again when we go back to the area in May and June. Great customer service Dawn!More</t>
   </si>
   <si>
+    <t>Meg S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r196738482-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1787,9 @@
     <t>We were pleasantly surprised with this hotel. First of all, it was very clean and quiet. Our room was spotless. Secondly, the front desk personnel were most welcoming and professional. Third, breakfast was very nice, unlike some complimentary breakfasts, and we especially liked the eggs which were moist and tender. Our room was cozy with a small sofa, coffee table, and desk. Wifi was spotty though. The bathroom was modern, updated with granite countertop, and good (not thin) towels. More</t>
   </si>
   <si>
+    <t>Marilyn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r193087717-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1811,9 @@
     <t>Traveled from Tennessee with a church group to attend the Creative Arts Minisry Festival at a church close by.  Very friendly staff.  Rooms were clean, beds were wonderful, and breakfast was great. Would recommend to others.More</t>
   </si>
   <si>
+    <t>Donna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r193060048-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1625,6 +1829,9 @@
     <t>If you happen to need lodging in desoto or surrounding Dallas area Holiday inn express is a choice you won't regret. not too far from the city or airports. Holiday Inn exceeded my expectation with 24h service and really nice rooms (parquet floors), this hotel will cover all your basic needs and then some. It's not a hotel you can spend your leisure time closed inside the room,  you can hardly beat the price/quality ratio. The staff was genuinely amazing, Dawn....You rock. Upon checking in, I encountered issues with my method of payyment and through discretion and class this Lady right here' ( Ms. Dawn) did her thing. I will always look for Holiday inn express and affiliates to accomodate my traveling needs with staff such as Ms. Dawn at hand. Again Thanks Ms. Lady, You ROCK!!! and your team as well. My guest and I cannot wait to return in such amazing, ambiance. My guest and I relaxed in comfort, we slept pretty well and enjoyed the cozy breakfast set up.All in all, an experience we might repeat in the future. Stayed February 2014, traveled as a coupleMore</t>
   </si>
   <si>
+    <t>Leann210</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r192847037-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1643,6 +1850,9 @@
     <t>Our church group had a wonderful experience at this hotel. The staff was excellent and the breakfast was delicious!  The location was great for what we needed. The rooms were very updated and clean.  I would give this hotel 5 Stars!More</t>
   </si>
   <si>
+    <t>CindyC1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r191758804-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1874,9 @@
     <t>Definitely would stay at this hotel. It was clean, comfortable, the room was nice and roomy! The front desk was very friendly and check in was quick! Would definitely stay at this hotel. Great breakfast too!More</t>
   </si>
   <si>
+    <t>cadan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r189209117-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1691,6 +1904,9 @@
     <t>We liked it so well we signed up for their card and looked for IHC hotels along the way. It was clean, friendly, and they locate them in easy to get to places along major routes. Parking was good too as we were pulling a car/trailer.More</t>
   </si>
   <si>
+    <t>B K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r188789832-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1925,9 @@
     <t>I have stayed at this hotel several times over the past two years.  Each time check in has been very quick while accommodating my specific request for room location in advance.   I was upgraded to a king suite as a priority member without even being told it was happening. My room was much bigger than I paid for and very comfortable. The towels were new and soft. The toiletries were name brand and very nice. Maria kept my room very clean and left me 2 lotions when I left a note that I was running out.  She also left a hand-written reply with a holiday greeting consistent with the sweater in my room and a little hand-drawn picture.  Sweet.  Breakfast is the typical HIE buffet food, which I have seen kept stocked, even during the rushes.  The breakfast area is bigger than most HIE with two areas that I have seen kept clean.  Checkout was even faster than check-in with the zero balance bill required by my employer already printed at the desk.  I was able to get a very reasonable state government rate.More</t>
   </si>
   <si>
+    <t>guvnerwl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r188163370-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1946,9 @@
     <t>Clean, new enough.  Our check in was uneventful, quick.  Room, suite king, was excellent.  Breakfast was typical - which is ok.  Location is good.  We have family in the area and use this facility occasionally.More</t>
   </si>
   <si>
+    <t>Juanita B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r186183485-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +1970,9 @@
     <t>This hotel is exceptional in demonstrating quality customer service. The hotel is CLEAN and the rooms provided a comfortable away from home environment. We received warm greetings by two employees, Daniel and Joseph. I solicited Joseph's assistance with directions to local attractions and he presented me with a detailed print out. Later in the day, we were greeted by the manager Dawn, she asked if there was anything she could do to further assist in making our hotel stay more pleasurable. This spoke volumes to us, because you rarely meet managers when you stay at a hotel unless you want to express dissatisfaction.More</t>
   </si>
   <si>
+    <t>patg00-00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r184013912-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2018,9 @@
     <t>On the plus side, the hotel was very quiet, the beds and pillows were very comfy and we never heard any other guests in the halls. We stayed 5 nights - for a couple of the nights we could hear walking above us. But other than that it was quiet.On the negative, the a/c was quite noisy and hard to adjust. It seemed old and out-dated. The room smelled kind of musty and stuffy when we would come in after being out all day (even though we left the a/c running).There is no fan in the bathroom so after a shower it is very humid and stuffy.The breakfast was your typical continental breakfast with the pancake machine and the typical powdered eggs, sausage patties and biscuits. We only ate the breakfast there once as we are considered "healthy" eaters and nothing there was very healthy except for the yogurts in the cooler (the only fresh fruit they offered were bananas and twice they ran out). We've had MUCH better breakfasts in other hotel chains. All in all, you get what you pay for. If we had only been staying for a night or two it would have been ok. But 5 nights was a bit too much to stay here. We'll try somewhere else next time.More</t>
   </si>
   <si>
+    <t>hthurman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r180839095-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2037,9 @@
   </si>
   <si>
     <t>We were pleasantly surprised with this Holiday Inn Express. The look &amp; feel is very retro sheek &amp; comfortable! The room was nice everything was new &amp; in great condition. The suite was a very good rate &amp; perfect with our 2 boys. Breakfast was actually very good the best hefty continental breakfast I've ever had. The Cinnamon Rolls were seriously comparable to Cinnabon! Great stay. We were just there to sleep &amp; eat breakfast but I bet the pool was nice since it's so new.More</t>
+  </si>
+  <si>
+    <t>Hardeep M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r180641830-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
@@ -1831,6 +2062,9 @@
 Also, I would totally ignore the most recent bad review because this traveler does not understand that fact that you need to have a valid credit card to secure your rooms. When it is a sold out night, many hotels are not going to wait until 3pm or 6pm to try to see if their credit card is valid after they have turned down other business. These people need to stay in business and make money so they can pay their employees and bills. There are many times travelers book their reservations and forget about them. There...I was very impressed with the cleanliness and professionalism of the staff at this hotel. The gentleman that checked me in was very busy but took care of me in a very short period of time. Even though my room was next to the elevator, it was super quiet. Breakfast was good! Every staff member I had interactions with was very friendly and approachable. The design of this Holiday Inn Express is very unique. One can tell that the ownership has gone above and beyond brand requirements to build this property. The amenities provided by this hotel are better quality than most Holiday Inn Expresses I have stayed at. Wifi was pretty fast and I only had to log in once and I stayed connected for three days. The hotel is close to some good restaurants and the highway location is very convenient. Also, I would totally ignore the most recent bad review because this traveler does not understand that fact that you need to have a valid credit card to secure your rooms. When it is a sold out night, many hotels are not going to wait until 3pm or 6pm to try to see if their credit card is valid after they have turned down other business. These people need to stay in business and make money so they can pay their employees and bills. There are many times travelers book their reservations and forget about them. There are people that make reservations with invalid credit cards on purpose and never show up.More</t>
   </si>
   <si>
+    <t>Donald A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r178372133-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1858,6 +2092,9 @@
     <t>I have stayed at this hotel every September for the past seven years attending the drag races at Ennis. Last year there was a loud party at the hotel that was annoying but I over looked it. This year was unbelievable from check in to check out. First problem. It started when we checked in. I book two rooms in October for the following September every year. This time was no different. This year the card that I used to book was stolen so I closed it and got a replacement. When I got to the hotel and checked in, they could not find my reservations. I explained that they were made 11 months earlier but they could not find them. When I produced one of the reservation numbers they said the reservations were canceled that morning. They had run all reservations for that day and if the credit card was not good the reservation was canceled. They were needing rooms and this was a good way to get them. Problem is the sign at the counter says check in 3:00 pm. Why were they running cards before check in time. I have stayed at many many holiday inns and this is not procedure. One of the gentlemen behind the counter said I will take care of you sir and he worked on the computer for about 10 minutes and reinstated my reservations. I was told by another employee that...I have stayed at this hotel every September for the past seven years attending the drag races at Ennis. Last year there was a loud party at the hotel that was annoying but I over looked it. This year was unbelievable from check in to check out. First problem. It started when we checked in. I book two rooms in October for the following September every year. This time was no different. This year the card that I used to book was stolen so I closed it and got a replacement. When I got to the hotel and checked in, they could not find my reservations. I explained that they were made 11 months earlier but they could not find them. When I produced one of the reservation numbers they said the reservations were canceled that morning. They had run all reservations for that day and if the credit card was not good the reservation was canceled. They were needing rooms and this was a good way to get them. Problem is the sign at the counter says check in 3:00 pm. Why were they running cards before check in time. I have stayed at many many holiday inns and this is not procedure. One of the gentlemen behind the counter said I will take care of you sir and he worked on the computer for about 10 minutes and reinstated my reservations. I was told by another employee that there were some rooms available at a Marriott about 3 miles away for those put out. An employee behind the counter said that Schumaker, which is one of the pro racers that stays at that hotel every year, wanted some extra rooms and was the cause of all the problems. Second problem. My buddy that I reserve for every year was placed in room 101 which is right across from the conference room. Both nights there was a large party with loud music. He said he was not able to sleep. The last night after going out to eat, we had to drive around the hotel 3 times before I could find a place to park due to people attending the loud party. Third problem last morning we went down to eat. There was apparently a church service going on in the conference room. People were coming in off the street to attend service and we're getting coffee and food making it difficult for paying guest to have breakfast. I think there were too many problems to overlook this year. I don't think I can come back to this hotel.More</t>
   </si>
   <si>
+    <t>scotty g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r178031517-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1876,6 +2113,9 @@
     <t>I travel a lot and stay in many hotels each year.  The staff at this hotel was amazing.  Each front desk employee was pleasant, helpful, and very professional.  I was personally greeted with a smile every time I arrived or departed the hotel.  Breakfast was good as well.More</t>
   </si>
   <si>
+    <t>TGrays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r175741466-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2137,9 @@
     <t>My family and I stayed here for the weekend.  The service was excellent.  We were greated with a warm smile and courteous service from an employee name Bruce.  Bruce promptly assisted me with our check in as well as out check out.  The hotel was located in great place and the accomodations were superior.  Thanks Holiday Inn Express for a pleasant stay.More</t>
   </si>
   <si>
+    <t>Brittany H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r175442686-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1915,6 +2158,9 @@
     <t>Our church had an event at this hotel where we had over 40 people spend the night and we also used one of the banquet rooms for a weekend retreat.  The hotel was amazing!  The lobby, meeting area and hotel rooms were very inviting and clean. The set up that we asked for was perfect and I was completely pleased with how everything looked.  There are many hotels that can be clean and welcoming but the service at this hotel was like no other. The GM and his team took such great care of us.  They went out of their way to make sure everything was perfect and that we were happy.  I was completely blown away by the GM and how attentive he was to the guests and how well he lead his staff.  I have nothing but great things to say about him and his hotel.More</t>
   </si>
   <si>
+    <t>Kathlyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r175180539-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2179,9 @@
     <t>We stayed at this hotel while in Dallas for my father's funeral. The hotel staff was attentive, courteous, and constantly inquiring of our needs and desires. The room was very spacious and clean, and the staff did an amazing job of cleaning around our junk because we literally wrecked the room with personal belongings and somehow they managed to bring order to the chaos daily. We also held the dinner following the service in a banquet room at this hotel and all was beautiful. I have to give major kudos to the staff for such a beautiful job of caring for my family during such a difficult time, and making such an unfortunate time as seamless an experience as possible.More</t>
   </si>
   <si>
+    <t>M M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r174949843-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1951,6 +2200,9 @@
     <t>Tha accommodations and amenities were excellent. This is my third stay here and I will continue to stay here when I'm in the area. The room was clean and modern. The overall hotel was well maintained.More</t>
   </si>
   <si>
+    <t>JWalker1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r173826360-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1972,6 +2224,9 @@
     <t>We go to see Dallas Stars games with some frequency. Quite often, we pick a hotel to stay the night in within the Desoto, Texas area. Desoto is not that far our from the American Airlines Center - straight out of downtown Dallas on the interstate... Typically - when fighting the traffic in the middle of Dallas - closer hotels actually take just as long or longer to get to with the traffic.Since we are coming from College Station, the location of this hotel is perfect for us. The next morning, it's easy to get on our way back to College Station.This was our first time staying at this motel. It was very clean, and we had no issues with our stay. The staff were very nice as well. And, there is a WalMart and a few eating places not too far away,More</t>
   </si>
   <si>
+    <t>007700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r173277223-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1990,6 +2245,9 @@
     <t>We are very happy with this hotels location, price,service and cleanliness.  Our room is very specious. Would definitely recommend. We were treated with a friendly smile at the front desk at check in which made our 15 hours of travel forgotten!More</t>
   </si>
   <si>
+    <t>Jgphdp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r172513822-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2008,6 +2266,9 @@
     <t>Our room was much more than we expected. It was very clean and spacious. The bed was the most comfortable that I've ever slept on in a hotel. Full hot breakfast with the best warm cinnamon rolls ever!  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Libertyhouse11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r172449458-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2026,6 +2287,9 @@
     <t>From the moment I walked in I loved this Holiday Inn Express! They have a great staff, new amenities and easy parking. I travel hotels on business for most days of the week and this is as good as they come for the price.                         More</t>
   </si>
   <si>
+    <t>mimipam77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r172440334-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2041,6 +2305,9 @@
     <t>Very nice hotel and accommodating staff.Nice cool room to come into after hours of traveling.Not to mention the cookies at night are always a treat and free breakfast in the morning is just icing on the cake.. Front desk mgr. was very helpful.More</t>
   </si>
   <si>
+    <t>Tony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r172439072-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2056,6 +2323,9 @@
     <t>Fast check-in and clean room, with everything needed to relax and unwind.  And the cookies at the front desk were very good, too!  The location is great for my business calls when I'm in the DFW area.  I'll certainly be back!More</t>
   </si>
   <si>
+    <t>CancunXmas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r172043228-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2344,9 @@
     <t>Stayed at the Holiday Inn Express for a business trip and the staff was more than accommodating for my particular needs! Great room, breakfast, and bed. Would definitely recommend this hotel to any and all travelers!More</t>
   </si>
   <si>
+    <t>mpugh22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r171815071-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2092,6 +2365,9 @@
     <t>This is a nice hotel. 3 star sums it up. It has nice clean rooms. Good sized, comfortable beds. Bath products are nice - made by Bath and Body Works. There is a well-maintained pool, although the hot tub was not hot and we couldn't figure out how to make it so.The breakfast was included, and it was quite good. Hot selection includes eggs, sausage, biscuits and gravy - and of course cinnamon rolls. Plenty of other cold stuff as well. Large breakfast area never felt crowded.Front desk staff was good. Nothing exceptional, but no complaints.Location was easy to get to. Right off the interstate. Lots of restaurants and a movie theater just one exit south. Probably 15 minutes to downtown from here.It was a fun stay for my family of four. Plenty of space in our two queen bed room. I would certainly return.More</t>
   </si>
   <si>
+    <t>Rbrown6432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r170935391-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2110,6 +2386,9 @@
     <t>We have family reunion of over 75 people and hotel staff was great.  When we had a problem it was corrected quickly.  Hotel staff showed great customer service and hotel was very clean.  Food was great and room was 5 star. I would come back to hotel any time.More</t>
   </si>
   <si>
+    <t>OnTheR0adAgain13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r167423783-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2137,6 +2416,9 @@
     <t>Stayed at this location for business recently and won't be going back.  The Customer Service rep was busy with phone calls when I arrived.  Being a Platinum member I am use to everything being ready when I show up, however, this was not the case.  Nonetheless, he did manage to get me checked in relatively quickly (took 5 minutes).  He did not acknowledge my IHG rewards status.  Also, on the front counter there was a wheel to spin for rewards members and he didn't tell me to take my spin.  Only when I came downstairs later did I inquire about it and I got my spin at that time.  I do expect more from the IHG brand when it comes to my IHG rewards status.  After all, this is the benefit of being loyal to the brand.  The room was decent but it seemed as though the carpets needed cleaned. When I walked around in my socks, they got very dirty quickly.  Bed was comfortable and it was quiet throughout the evening.  My room had a jacuzzi tub but I didn't get to use it.  The thing that stands out the most regarding this stay was the fact that I didn't have internet access.  I talked with their internet provider and they said it wasn't anything on their end.  My paid for anti-virus/firewall software (ESET Smart Security 6 - $60/yr) prevented me from getting online due to unknown issues though...Stayed at this location for business recently and won't be going back.  The Customer Service rep was busy with phone calls when I arrived.  Being a Platinum member I am use to everything being ready when I show up, however, this was not the case.  Nonetheless, he did manage to get me checked in relatively quickly (took 5 minutes).  He did not acknowledge my IHG rewards status.  Also, on the front counter there was a wheel to spin for rewards members and he didn't tell me to take my spin.  Only when I came downstairs later did I inquire about it and I got my spin at that time.  I do expect more from the IHG brand when it comes to my IHG rewards status.  After all, this is the benefit of being loyal to the brand.  The room was decent but it seemed as though the carpets needed cleaned. When I walked around in my socks, they got very dirty quickly.  Bed was comfortable and it was quiet throughout the evening.  My room had a jacuzzi tub but I didn't get to use it.  The thing that stands out the most regarding this stay was the fact that I didn't have internet access.  I talked with their internet provider and they said it wasn't anything on their end.  My paid for anti-virus/firewall software (ESET Smart Security 6 - $60/yr) prevented me from getting online due to unknown issues though and this hasn't happened at any hotel that I have stayed at for over 8 years (approx. 40 hotels, multiple times for each hotel).  I am tech-savy and was unable to solve the problem even after contacting ESET.  For a traveling businessman, not having access to the internet is a deal breaker.  My software may have been preventing online access but this was due to a security issue on the hotels end (exact words from ESET).  I am sure others were likely able to get online but I was not.  I have learned to trust my security software and it has never steered me wrong (my laptop is 8 yrs old and doesn't have issues).  Due to this, I will not be going back.More</t>
   </si>
   <si>
+    <t>Angie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r167170492-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2155,6 +2437,9 @@
     <t>We had a family of five travelling to Texas for a wedding, so our stay required a larger room.  Although our stay was not without hiccups, the staff was on top of our every request.  When the TV would not connect to service, they were there in 10 minutes to reset the cable.  When we needed a new iron, they brought it in 10 minutes.  When we had an unsanitary condition in our extra bedding, they immediately came to the room to investigate the issue and brought fresh linens immediately to resolve it.  They were immediately available to answer our questions as we were in an unfamiliar area of the metro.The business center was a convenience that was unanticipated.  As an adult student, I was trying to submit assignments online and my laptop wasn’t working properly.  I was able to sign on to one of their courtesy computers and submit the assignments.  Our cell phone service was not very good inside of our room.  We had to go outside of the building to have clear reception to make and receive calls, however, I cannot blame that on the hotel.  Our carrier does not have a good reputation in Texas and I assume that our coverage issues were due to our provider and aging equipment.  They did not have anything to do with the hotel.We had a great experience and would gladly return to this hotel.More</t>
   </si>
   <si>
+    <t>Bonnae N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r124356292-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2176,6 +2461,9 @@
     <t>Excellent experience.  My husband and I stayed at your hotel "Holiday Inn Express Hotel and Suites Dallas South-Desoto, Texas from February 3rd to 5th while my neice was competing in her gymnastics competition.  Everyone was accomadating and helpful.  My husband is handicapped and in a wheelchair and the room was very accessible for him and very comfortable.  If she is competing in the area next year, we will definately stay with you.  I would recommend this hotel to everyone who is staying in the area in the future.More</t>
   </si>
   <si>
+    <t>Marla J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r124353484-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2191,6 +2479,9 @@
     <t>I'd like to take a moment to say that for as long as my family and I has stayed at this location Dee and Dewayne has given us personal and exeptional service. We wouldn't possibly think of staying anywhere else when we come in town.More</t>
   </si>
   <si>
+    <t>carouselride</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r124255513-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2212,6 +2503,9 @@
     <t>Mr. Dewayne Bryant &amp; Staff..My family and I stayed at your hotel "Holiday Inn Express Hotel &amp; Suites Dallas South-DeSoto,Texas, 1310 Wintergreen Road, DeSoto, Texas. From July 5th to July 8th  2011.My 10 year old grandson and team were playing in the USSSA World Series Baseball Tournament. We had an excellant stay. Everyone was very accomadating to our changing schedule. We stayed at several hotels (Embassy Suites-several different ones in the DFW area- Hyatt, Hilton) during the course of the season leading up to the tournament in DeSoto, Texas. All in my family are in agreement YOURS WAS THE BEST. Rooms were nicer. You have ceiling fans, a Big plus for me. Prices were lower, even with the team discounts at the other hotels.The only thing we could ask for would be to have gravy at breakfast. If the team plays in your area season of 2012 we will be staying with you.Thank you , Hazel Burney  . Oh yes, the boys got 2nd place in the USSSA World Series Tournament - Under 10 - WF OUTLAWS- Wichita Falls, Texas. Arkansas won by 2 runs.More</t>
   </si>
   <si>
+    <t>211CaliGurlz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r123573395-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2239,6 +2533,9 @@
     <t>My family and I had the most enjoyable time here. The Operations Manager Dwyane Bryant took such good care of us. He made sure that we were supplied with any and everything possible. When family memebers came by the hotel to visit or pick us up, he treated them like family as well and. He took the time to know us on a first name basis. Never have I had an experience like this. Kudos to Dwayne.More</t>
   </si>
   <si>
+    <t>Pozzo82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r123550162-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2257,6 +2554,9 @@
     <t>The Hotel is nice and clean with huge rooms, good fornitures. Good for businees trip. The price not so expensive as in the Downtown. Free parking. I don't like the breakfast, quite poor, the absence of beverage in the fridge, and the position. In fact the hotel is very close to a big road and in the room there is the loud of the traffic.More</t>
   </si>
   <si>
+    <t>crod c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r120961102-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2281,6 +2581,9 @@
     <t>I have stayed at this hotel over 10 times.  I go out of my way to stay at this location because the service is so Great!  The Operation manager Dewayne is the best.  He provides local places to eat and visit.  I recommend anyone staying here.  You will enjoy the service and the decor!More</t>
   </si>
   <si>
+    <t>twofromtexas42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r120357842-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2299,6 +2602,9 @@
     <t>We were in town to attend a wedding in Hurst, Texas and also wanted to visit family in Lancaster.  This was the perfect location from which to do both.  The drive through port cochere is convenient to the front entrance and made it easy to unload our luggage, ice coolers, etc., and there were plenty of free parking spaces.  At night time, the parking lot is well lighted. We're priority members and our check-in was extremely efficient.  Upon our arrival, they gave us bags with pretzels, bottled water and candy.  The lobby and elevator area is decorated in a zen like vibe with glass panels, black rocks and the lounge furniture is very comfortable.  I would rather see fresh plants than artificial, but that's just my personal preference.  I remember music playing overhead.  Our suite had  a microwave oven, mini-refrigerator, kitchenette sink, granite coffee bar and a ceiling fan; for the hot weather in Texas, that is a good thing.  Our king sized bed was very comfortable and at a slight angle from the flat screen t.v.  The real bonus was the free breakfast.  It was nice to have coffee, juice, milk, yogurt, fresh fruit, cereal, bagels and cream cheese and other hot breakfast items, including pancakes, conveniently available to start our day.  It was pretty popular with the other guests as well.    They do promptly close the kitchen at 9:30 a.m.  Check-out was extremely easy. As we left, we...We were in town to attend a wedding in Hurst, Texas and also wanted to visit family in Lancaster.  This was the perfect location from which to do both.  The drive through port cochere is convenient to the front entrance and made it easy to unload our luggage, ice coolers, etc., and there were plenty of free parking spaces.  At night time, the parking lot is well lighted. We're priority members and our check-in was extremely efficient.  Upon our arrival, they gave us bags with pretzels, bottled water and candy.  The lobby and elevator area is decorated in a zen like vibe with glass panels, black rocks and the lounge furniture is very comfortable.  I would rather see fresh plants than artificial, but that's just my personal preference.  I remember music playing overhead.  Our suite had  a microwave oven, mini-refrigerator, kitchenette sink, granite coffee bar and a ceiling fan; for the hot weather in Texas, that is a good thing.  Our king sized bed was very comfortable and at a slight angle from the flat screen t.v.  The real bonus was the free breakfast.  It was nice to have coffee, juice, milk, yogurt, fresh fruit, cereal, bagels and cream cheese and other hot breakfast items, including pancakes, conveniently available to start our day.  It was pretty popular with the other guests as well.    They do promptly close the kitchen at 9:30 a.m.  Check-out was extremely easy. As we left, we were given a friendly smile by the front desk staff member.More</t>
   </si>
   <si>
+    <t>Jeff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r120103175-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2317,6 +2623,9 @@
     <t>Wow!  All I can say is, wow!  This is exactly the way all Holiday Inn Express hotels should be.  The lobby is clean and spacious and I arrived during the manager's reception with free snacks and drinks for guests.  The manager who checked me in was friendly, helpful and very efficient.  He helped me find a great local restaurant for dinner, greeted me as a gold level member and made sure I knew where everything was, when breakfast was, etc.  When I opened the door to the room I was blown away.  The room was huge, spotless and very comfortable.  The AC worked perfectly and I slept very well in preparation for my meeting the next day.  I expect that I will be back this way within a few months, for an extended stay rather than one night, and I will be staying here when I return.More</t>
   </si>
   <si>
+    <t>Churchgirl333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r117788596-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2338,6 +2647,9 @@
     <t>My church family travels from Louisiana to the Dallas area annually to fellowship with our sister church.  During the first few years, we tried a variety of hotels.  Each hotel proved to be less than satisfying.  We were either not pleased with location or service.  Then, we were blessed to discover the opening of a Holiday Inn Express in Desoto.  We contacted the hotel manager, Mr. Owens, prior to the hotel's official opening and he booked our reservations.  Upon our arrival, we discovered a beautiful location, courteous staff, and exceptionally clean rooms.  Mr. Owens even met us personally at the front desk and checked us in--TWO CALCO BUSES full of people!!! With each passing year, the level of service rose another notch.  We are now spoiled and refuse to stay anywhere else!!  Therefore, we strongly recommend this hotel to anyone traveling in the Dallas area.  You will not be disappointed after you experience the professionalism of Mr. Owens; the accommodating spirit of Ms. Dykes, the Director of Sales; and the welcoming smile and generous heart of Mr. Bryant, the Front Office Manager.  They each have become irrevocable members of our church family!!!More</t>
   </si>
   <si>
+    <t>Irene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r117406927-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2356,6 +2668,9 @@
     <t>from the moment I checked in, the staff was very warm and I felt welcomed! Every staff member was friendly...from maintenance to management. I was very impressed by the comfortable beds, nice furniture and cleanliness of all the rooms.  I will definitely stay at this hotel again.More</t>
   </si>
   <si>
+    <t>getdown_jackieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r115900821-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2380,6 +2695,9 @@
     <t>Recently while traveling, I had the opportunity to stay at the Holiday Inn Express in Desoto,TX. My family and I had a great tine during our stay.The outstanding Customer Service and Hospitality we received was constant and never changed during our stay at this location. The whole staff was always upbeat, positive and more than willing to help with the smallest request. The location was within walking distance of restaurants and other local businesses so that we were able to reach them easily. The hotel is colorful and charming a place with an cozy atmosphere which made us feel as if we were at home.     Thank you to the staff  especially the Manager Mr. Dewayne Bryant for his "Outstanding" efforts in assisting the guests leaving the Holiday Inn Express with a smile and good memories. Jackie JacksonChula Vista,CaMore</t>
   </si>
   <si>
+    <t>edjnycz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r115661932-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2398,6 +2716,9 @@
     <t>clean  and staff very pleasant. They went out of their way to make your stay a good one.More</t>
   </si>
   <si>
+    <t>putterman41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r115553329-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2425,6 +2746,9 @@
     <t>Enjoyed the entire experience. The staff was friendly and very knowledgable. They  made every effort to make the stay a pleasant one. We will definitely return to this hotel.More</t>
   </si>
   <si>
+    <t>cal2net</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r89363810-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2443,6 +2767,9 @@
     <t>Stayed here for one night for a gymnastics meet and it served its purpose. The hotel in itself is very nicely decorated. It's clean and beds are comfortable. The only issue I have is that we were placed on the bottom first floor and you could hear every footstep from the room above us. I always request a top floor for this reason but unfortunately this is where we were placed. Even though I did not partake in the breakfast (it ends at 9:30) it looked pretty good. I did have coffee and the hostess offered to bring something out for me but I really just needed coffee while I waited for my family. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>tas5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r68022161-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2464,6 +2791,9 @@
     <t>I stayed at this Holiday Inn Express with my children and parents.  We booked two rooms at an affordable price and the experience only got better from there.  The hotel was spotless and beautifully decorated.  The staff was extremely kind and helpful.  On our second of three nights,  a graduation party was scheduled to take place at the hotel.  Because the party was located just below our room the staff on site called to inform us and offer to move our entire party to new rooms.  Throughout the evening the staff made sure that the loud music was not intruding on our stay and they offered several times to move us if it ever became a problem.  Later in the evening we stopped at the desk to ask for directions to an ice cream shoppe.  We were given simple,  quick directions and the hotel even sprung for our ice cream!  I highly recommend this hotel.  My only complaint, the towels.  Even though we booked the room for 4 guests we were only given 3 towels a day.  Every day we had to go to the front desk to sign for more towels.  A small price to pay for an exceptional stay!More</t>
   </si>
   <si>
+    <t>casslyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r65326029-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2485,6 +2815,9 @@
     <t>I really enjoyed my stay at this hotel! I've stayed twice and will be staying again in the near future. The staff is friendly and helpful. The rooms are clean, roomy and comfortable.  Beautiful quiet place to stay.More</t>
   </si>
   <si>
+    <t>Jenerator325</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r40636654-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2506,6 +2839,9 @@
     <t>We have stayed twice at this hotel during the summer.  We generally stop here on our way to see friends in South Texas.  We have stayed in the whirlpool room and a regular king room.  The hotel is always very clean, the staff very helpful and friendly. The decor is new and updated.  It doesn't feel like the average roadside hotel at all. If you're in the area I would recommend looking into this hotel for the quality you get for the price.  They have a free hot breakfast that looks good, but we've never eaten it.  All in all, a very nice place to stay that we have enjoyed every time we're there.More</t>
   </si>
   <si>
+    <t>ChiefHung-lo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r36663021-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2527,6 +2863,9 @@
     <t>We stayed in hotel the first weekend of august for a bmx state race. The hotel was very nice, with helpful staff. Breakfast was very good, but there is also a cracer barrel within walkin distance (parking lots connect). Also a 24 hour 7-11 across the street. We had a 2queen bed suite with a pull out couch. The room was a litte small considering it's labeled as a "suite."More</t>
   </si>
   <si>
+    <t>needanothervacation6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r29856627-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2548,6 +2887,9 @@
     <t>My husband and I stayed there in May for a night, it was a great hotel. It was so clean and the staff were so polite. we staed in the whirlpool suite which was exciting. the hotel was in a great area and was very close to everything. there is nothing on the side or infront of the hotel across the street so its very peaceful there. the breakfast i have to say was the most impressive thing though most continental breakfasts are not as elaberate as this one. they have so much to choose from. 4 kinds of cereal, yogurt, muffins.waffles,eggs, omelets, biscuits,sausage gravy, 4 kinds of juice, coffee, paper, and al kinds of fruits. usual im not very impressed by hotels but this one me and my husband agree is one we will be back to and will recommend to anyone.More</t>
   </si>
   <si>
+    <t>ilikeitclean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r15974228-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2567,6 +2909,9 @@
   </si>
   <si>
     <t>We travel quite a bit throughout the southern states and we usually stick with the HDIxpress and Hilton brands for the sake of quality and economics. This location is hands down the BEST HDIxpress property we have stayed in period! Its New, the Staff is very professional from top to bottom and the decor gives off a modern artsy feel. Every inch of  this property was clean including the parking lot!! I have 5 members in my family so we reserved the oversized room which sleeps 6 ( 2- Queens 1 - Sleeper sofa ) so we did not ecounter the small rooms that were mentioned by one the previous reviewers. The only problem I found in the design of our room type was that the toilet is seated to close to the door ( 3" clearance when opening ), other than that if you ever need to stay in south Dallas this would be a great option.More</t>
+  </si>
+  <si>
+    <t>cdublu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r11389157-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
@@ -2598,6 +2943,9 @@
 So all in all if you...Booked a stay here to attend a gymnastics event in DeSoto for me, my wife and our two daughters. Given it is a never hotel (a few months old) we expected a clean envinronment and am glad to report it was just as we thought.Room we stayed in had two full beds, a work desk and a bureau with ~32 inch LCD TV. As earlier poster pointed out the linens, towels and such are in very good condition. Rooms are not huge but not tiny, about average size. In room wire and wireless internet was available (weak signal but there). Did have to call to the desk to figure out how to connect as no direction were left in the room. We took advantage of the pool, which is outdoors but was heated as advertised (after too many hotel stays with a freezing "heated pool"). It was quite nice,depth  ranges on a gentle slope from ~ 2 ft to 5 ft deep, so there was space for our younger daughter to play. Pool was quite nice in design, with a cascading mini waferfall and attached hot tub. We don't usually seek out a hotel for its pool, but this one was the first that was a pleasant surprise.Hotel location is off IH 35E as adverstised, nearby chain restaurants include Cracker Barrel, Chilis, On the Border and Outback. It is convienent and quiet.So all in all if you find yourself needing to stay in south Dallas I'd recommend this hotel for a stay, well worth the very affordable rates.More</t>
   </si>
   <si>
+    <t>lmendoza2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r10973527-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -2617,6 +2965,9 @@
   </si>
   <si>
     <t>This hotel is one of the best! They have great service, great rooms, comfty beds, and beautiful, clean amenities. We stayed one night only and were very pleasantly suprised with how nice it was. They also serve complimentary breakfast, which was not bad at all. The price is moderate (we paid about $120 for 1 night) but it is so worth it!!! It smells very clean and brand new. We loved it and will probably stay there in the future when we visit Dallas again. I give it 5 stars!!!More</t>
+  </si>
+  <si>
+    <t>ShazaamIam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d672896-r8706233-Holiday_Inn_Express_Hotel_Suites_Dallas_South_DeSoto-DeSoto_Texas.html</t>
@@ -3139,43 +3490,47 @@
       <c r="A2" t="n">
         <v>55629</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3195,50 +3550,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55629</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>40428</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3252,50 +3611,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55629</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>13740</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3309,50 +3672,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55629</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3370,56 +3737,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55629</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155287</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3437,50 +3808,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55629</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>72521</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3498,56 +3873,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55629</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3567,50 +3946,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55629</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3626,50 +4009,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55629</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3685,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55629</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3748,50 +4139,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55629</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3809,50 +4204,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55629</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3870,56 +4269,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55629</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3931,56 +4334,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55629</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3994,50 +4401,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55629</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>148</v>
       </c>
-      <c r="L16" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>135</v>
-      </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4049,56 +4460,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55629</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4118,50 +4533,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55629</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>43311</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4179,50 +4598,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55629</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>27831</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4240,50 +4663,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55629</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155297</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4295,56 +4722,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55629</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>18921</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4356,47 +4787,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55629</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -4415,50 +4850,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55629</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>47396</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4476,56 +4915,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55629</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155299</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4537,56 +4980,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55629</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4604,56 +5051,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="X25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55629</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155301</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4671,56 +5122,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="X26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55629</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155302</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4732,56 +5187,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="X27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55629</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C28" t="s">
+        <v>256</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4797,56 +5256,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55629</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4858,56 +5321,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="X29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55629</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146523</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4923,56 +5390,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55629</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>22037</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4992,50 +5463,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55629</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>90320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5049,50 +5524,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55629</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155304</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5104,56 +5583,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55629</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>48726</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5165,56 +5648,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55629</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155305</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5232,56 +5719,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55629</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5293,56 +5784,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="X36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55629</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155307</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5354,56 +5849,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55629</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155308</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5415,56 +5914,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55629</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>40743</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5484,50 +5987,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55629</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>79773</v>
+      </c>
+      <c r="C40" t="s">
+        <v>364</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5547,50 +6054,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55629</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155309</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5608,50 +6119,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55629</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155310</v>
+      </c>
+      <c r="C42" t="s">
+        <v>378</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5667,56 +6182,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="X42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55629</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155311</v>
+      </c>
+      <c r="C43" t="s">
+        <v>387</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5734,56 +6253,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="X43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="Y43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55629</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155312</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5801,56 +6324,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55629</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155313</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5870,50 +6397,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55629</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>47775</v>
+      </c>
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5931,50 +6462,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55629</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>418</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5994,50 +6529,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55629</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>80608</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6057,50 +6596,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55629</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="K49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="L49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6114,41 +6657,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55629</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155316</v>
+      </c>
+      <c r="C50" t="s">
+        <v>439</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -6167,50 +6714,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55629</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6230,50 +6781,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55629</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155318</v>
+      </c>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6291,47 +6846,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="X52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Y52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55629</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155319</v>
+      </c>
+      <c r="C53" t="s">
+        <v>463</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="J53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -6358,56 +6917,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="X53" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55629</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155320</v>
+      </c>
+      <c r="C54" t="s">
+        <v>470</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6425,56 +6988,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="X54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Y54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55629</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155321</v>
+      </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="J55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="K55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6492,56 +7059,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="X55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55629</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>9870</v>
+      </c>
+      <c r="C56" t="s">
+        <v>489</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6559,47 +7130,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55629</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155322</v>
+      </c>
+      <c r="C57" t="s">
+        <v>498</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6626,56 +7201,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>55629</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155323</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="O58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6691,56 +7270,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X58" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>55629</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155324</v>
+      </c>
+      <c r="C59" t="s">
+        <v>515</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6758,56 +7341,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>55629</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C60" t="s">
+        <v>525</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="J60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="K60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6825,56 +7412,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X60" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>55629</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155325</v>
+      </c>
+      <c r="C61" t="s">
+        <v>532</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6896,47 +7487,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="X61" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="Y61" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>55629</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>542</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="J62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -6953,56 +7548,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X62" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y62" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>55629</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>29578</v>
+      </c>
+      <c r="C63" t="s">
+        <v>549</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="J63" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="K63" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="L63" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7014,47 +7613,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X63" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y63" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>55629</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155327</v>
+      </c>
+      <c r="C64" t="s">
+        <v>557</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="J64" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="K64" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -7081,47 +7684,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X64" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y64" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>55629</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155328</v>
+      </c>
+      <c r="C65" t="s">
+        <v>563</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="J65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K65" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="L65" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7148,56 +7755,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y65" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>55629</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>572</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="J66" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="K66" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7219,56 +7830,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="X66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="Y66" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>55629</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>15603</v>
+      </c>
+      <c r="C67" t="s">
+        <v>580</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="J67" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="K67" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="L67" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="O67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7280,56 +7895,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X67" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y67" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>55629</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>86724</v>
+      </c>
+      <c r="C68" t="s">
+        <v>587</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="J68" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="K68" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="L68" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="O68" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7351,56 +7970,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X68" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y68" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>55629</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>28171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>595</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="J69" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="K69" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="L69" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7422,47 +8045,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X69" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y69" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>55629</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155330</v>
+      </c>
+      <c r="C70" t="s">
+        <v>601</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="J70" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="K70" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="L70" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7489,56 +8116,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X70" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y70" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>55629</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155331</v>
+      </c>
+      <c r="C71" t="s">
+        <v>608</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="J71" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="K71" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="L71" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="O71" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7560,56 +8191,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X71" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y71" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>55629</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="J72" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="K72" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="L72" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="O72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7631,56 +8266,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="X72" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="Y72" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>55629</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>12353</v>
+      </c>
+      <c r="C73" t="s">
+        <v>626</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="K73" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="L73" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7702,56 +8341,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="X73" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="Y73" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>55629</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155333</v>
+      </c>
+      <c r="C74" t="s">
+        <v>633</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="J74" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="L74" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7773,56 +8416,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="X74" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="Y74" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>55629</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155334</v>
+      </c>
+      <c r="C75" t="s">
+        <v>640</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="J75" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="K75" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="L75" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7844,56 +8491,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="X75" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="Y75" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>55629</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155335</v>
+      </c>
+      <c r="C76" t="s">
+        <v>648</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7915,56 +8566,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="X76" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="Y76" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>55629</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155320</v>
+      </c>
+      <c r="C77" t="s">
+        <v>480</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="J77" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="L77" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="O77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7986,47 +8641,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="X77" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="Y77" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>55629</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155336</v>
+      </c>
+      <c r="C78" t="s">
+        <v>664</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="J78" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="K78" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="L78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -8053,56 +8712,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="X78" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="Y78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>55629</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155337</v>
+      </c>
+      <c r="C79" t="s">
+        <v>671</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="J79" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="K79" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="O79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8124,56 +8787,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="X79" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="Y79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>55629</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>48443</v>
+      </c>
+      <c r="C80" t="s">
+        <v>678</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="J80" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="K80" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="L80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="O80" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8185,56 +8852,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y80" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>55629</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155338</v>
+      </c>
+      <c r="C81" t="s">
+        <v>688</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="J81" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="K81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8256,56 +8927,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X81" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>55629</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>155339</v>
+      </c>
+      <c r="C82" t="s">
+        <v>695</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8327,56 +9002,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X82" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y82" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>55629</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>34177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>703</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="J83" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="K83" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="L83" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8398,56 +9077,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X83" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y83" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>55629</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155340</v>
+      </c>
+      <c r="C84" t="s">
+        <v>710</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="J84" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="K84" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="L84" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8469,56 +9152,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X84" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y84" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>55629</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>18920</v>
+      </c>
+      <c r="C85" t="s">
+        <v>717</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>636</v>
+        <v>719</v>
       </c>
       <c r="J85" t="s">
-        <v>637</v>
+        <v>720</v>
       </c>
       <c r="K85" t="s">
-        <v>638</v>
+        <v>721</v>
       </c>
       <c r="L85" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8540,56 +9227,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="X85" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="Y85" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>55629</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155341</v>
+      </c>
+      <c r="C86" t="s">
+        <v>724</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="J86" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
       <c r="K86" t="s">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="L86" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="O86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8611,47 +9302,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X86" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y86" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>55629</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>732</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="J87" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="K87" t="s">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="L87" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
@@ -8678,47 +9373,51 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X87" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y87" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>55629</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>739</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="J88" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
       <c r="K88" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="L88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8745,47 +9444,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X88" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y88" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>55629</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155344</v>
+      </c>
+      <c r="C89" t="s">
+        <v>746</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="J89" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="K89" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="L89" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8812,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X89" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y89" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>55629</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>155345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>753</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="J90" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="K90" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="L90" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8883,56 +9590,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X90" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y90" t="s">
-        <v>670</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>55629</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>12238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>759</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="J91" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="K91" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="L91" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8954,56 +9665,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X91" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y91" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>55629</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155346</v>
+      </c>
+      <c r="C92" t="s">
+        <v>765</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="J92" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="K92" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="L92" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9025,56 +9740,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X92" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y92" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>55629</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>155347</v>
+      </c>
+      <c r="C93" t="s">
+        <v>772</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="J93" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
       <c r="K93" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="L93" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9096,56 +9815,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X93" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y93" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>55629</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>155348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>779</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="J94" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="K94" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="L94" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="O94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9167,56 +9890,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X94" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y94" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>55629</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155349</v>
+      </c>
+      <c r="C95" t="s">
+        <v>786</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>694</v>
+        <v>787</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>695</v>
+        <v>788</v>
       </c>
       <c r="J95" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="K95" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="L95" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9238,56 +9965,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="X95" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="Y95" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>55629</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>119154</v>
+      </c>
+      <c r="C96" t="s">
+        <v>796</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="J96" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="K96" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="L96" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="O96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9309,56 +10040,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X96" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y96" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>55629</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155350</v>
+      </c>
+      <c r="C97" t="s">
+        <v>803</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="J97" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="K97" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="L97" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="O97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9380,56 +10115,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X97" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y97" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>55629</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>155351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>811</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>716</v>
+        <v>812</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="J98" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="K98" t="s">
-        <v>718</v>
+        <v>814</v>
       </c>
       <c r="L98" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="O98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9451,56 +10190,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X98" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y98" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>55629</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>155352</v>
+      </c>
+      <c r="C99" t="s">
+        <v>817</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>721</v>
+        <v>818</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>722</v>
+        <v>819</v>
       </c>
       <c r="J99" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
       <c r="K99" t="s">
-        <v>724</v>
+        <v>821</v>
       </c>
       <c r="L99" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="O99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9522,56 +10265,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X99" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y99" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>55629</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155353</v>
+      </c>
+      <c r="C100" t="s">
+        <v>825</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
       <c r="J100" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
       <c r="K100" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="L100" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="O100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9593,56 +10340,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="X100" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="Y100" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>55629</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155354</v>
+      </c>
+      <c r="C101" t="s">
+        <v>835</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>737</v>
+        <v>836</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>738</v>
+        <v>837</v>
       </c>
       <c r="J101" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
       <c r="K101" t="s">
-        <v>739</v>
+        <v>838</v>
       </c>
       <c r="L101" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="O101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9664,56 +10415,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="X101" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="Y101" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>55629</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>155355</v>
+      </c>
+      <c r="C102" t="s">
+        <v>842</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
       <c r="J102" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="K102" t="s">
-        <v>746</v>
+        <v>846</v>
       </c>
       <c r="L102" t="s">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="O102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9735,56 +10490,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="X102" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="Y102" t="s">
-        <v>750</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>55629</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155356</v>
+      </c>
+      <c r="C103" t="s">
+        <v>851</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="J103" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="K103" t="s">
-        <v>754</v>
+        <v>855</v>
       </c>
       <c r="L103" t="s">
-        <v>755</v>
+        <v>856</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9806,56 +10565,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="X103" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="Y103" t="s">
-        <v>756</v>
+        <v>857</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>55629</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>43579</v>
+      </c>
+      <c r="C104" t="s">
+        <v>858</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="J104" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="K104" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
       <c r="L104" t="s">
-        <v>761</v>
+        <v>863</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="O104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9877,56 +10640,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="X104" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="Y104" t="s">
-        <v>762</v>
+        <v>864</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>55629</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>155357</v>
+      </c>
+      <c r="C105" t="s">
+        <v>865</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>763</v>
+        <v>866</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
       <c r="J105" t="s">
-        <v>765</v>
+        <v>868</v>
       </c>
       <c r="K105" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="L105" t="s">
-        <v>767</v>
+        <v>870</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>768</v>
+        <v>871</v>
       </c>
       <c r="O105" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9944,56 +10711,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="X105" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="Y105" t="s">
-        <v>769</v>
+        <v>872</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>55629</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>155358</v>
+      </c>
+      <c r="C106" t="s">
+        <v>873</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>771</v>
+        <v>875</v>
       </c>
       <c r="J106" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="K106" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c r="L106" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="O106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -10009,56 +10780,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="X106" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="Y106" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>55629</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155359</v>
+      </c>
+      <c r="C107" t="s">
+        <v>880</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>776</v>
+        <v>881</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="J107" t="s">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="K107" t="s">
-        <v>779</v>
+        <v>884</v>
       </c>
       <c r="L107" t="s">
-        <v>780</v>
+        <v>885</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="O107" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10076,56 +10851,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
       <c r="X107" t="s">
-        <v>782</v>
+        <v>887</v>
       </c>
       <c r="Y107" t="s">
-        <v>783</v>
+        <v>888</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>55629</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155360</v>
+      </c>
+      <c r="C108" t="s">
+        <v>889</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
       <c r="J108" t="s">
-        <v>786</v>
+        <v>892</v>
       </c>
       <c r="K108" t="s">
-        <v>787</v>
+        <v>893</v>
       </c>
       <c r="L108" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="O108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -10143,56 +10922,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
       <c r="X108" t="s">
-        <v>782</v>
+        <v>887</v>
       </c>
       <c r="Y108" t="s">
-        <v>789</v>
+        <v>895</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>55629</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>155361</v>
+      </c>
+      <c r="C109" t="s">
+        <v>896</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="J109" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="K109" t="s">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="L109" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>795</v>
+        <v>902</v>
       </c>
       <c r="O109" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10210,56 +10993,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>796</v>
+        <v>903</v>
       </c>
       <c r="X109" t="s">
-        <v>797</v>
+        <v>904</v>
       </c>
       <c r="Y109" t="s">
-        <v>798</v>
+        <v>905</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>55629</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>14835</v>
+      </c>
+      <c r="C110" t="s">
+        <v>906</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>799</v>
+        <v>907</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>800</v>
+        <v>908</v>
       </c>
       <c r="J110" t="s">
-        <v>801</v>
+        <v>909</v>
       </c>
       <c r="K110" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="L110" t="s">
-        <v>802</v>
+        <v>910</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>803</v>
+        <v>911</v>
       </c>
       <c r="O110" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10281,56 +11068,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X110" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y110" t="s">
-        <v>804</v>
+        <v>912</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>55629</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>155362</v>
+      </c>
+      <c r="C111" t="s">
+        <v>913</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>805</v>
+        <v>914</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>806</v>
+        <v>915</v>
       </c>
       <c r="J111" t="s">
-        <v>807</v>
+        <v>916</v>
       </c>
       <c r="K111" t="s">
-        <v>808</v>
+        <v>917</v>
       </c>
       <c r="L111" t="s">
-        <v>809</v>
+        <v>918</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>810</v>
+        <v>919</v>
       </c>
       <c r="O111" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10352,56 +11143,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X111" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y111" t="s">
-        <v>811</v>
+        <v>920</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>55629</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>155363</v>
+      </c>
+      <c r="C112" t="s">
+        <v>921</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="J112" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="K112" t="s">
-        <v>815</v>
+        <v>925</v>
       </c>
       <c r="L112" t="s">
-        <v>816</v>
+        <v>926</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>817</v>
+        <v>927</v>
       </c>
       <c r="O112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10423,56 +11218,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X112" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y112" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>55629</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>155364</v>
+      </c>
+      <c r="C113" t="s">
+        <v>929</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>819</v>
+        <v>930</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>820</v>
+        <v>931</v>
       </c>
       <c r="J113" t="s">
-        <v>821</v>
+        <v>932</v>
       </c>
       <c r="K113" t="s">
-        <v>822</v>
+        <v>933</v>
       </c>
       <c r="L113" t="s">
-        <v>823</v>
+        <v>934</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>824</v>
+        <v>935</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10494,56 +11293,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X113" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y113" t="s">
-        <v>825</v>
+        <v>936</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>55629</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>155365</v>
+      </c>
+      <c r="C114" t="s">
+        <v>937</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>826</v>
+        <v>938</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>827</v>
+        <v>939</v>
       </c>
       <c r="J114" t="s">
-        <v>828</v>
+        <v>940</v>
       </c>
       <c r="K114" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="L114" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>831</v>
+        <v>943</v>
       </c>
       <c r="O114" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10565,56 +11368,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X114" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y114" t="s">
-        <v>832</v>
+        <v>944</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>55629</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>155366</v>
+      </c>
+      <c r="C115" t="s">
+        <v>945</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>833</v>
+        <v>946</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>834</v>
+        <v>947</v>
       </c>
       <c r="J115" t="s">
-        <v>835</v>
+        <v>948</v>
       </c>
       <c r="K115" t="s">
-        <v>836</v>
+        <v>949</v>
       </c>
       <c r="L115" t="s">
-        <v>837</v>
+        <v>950</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>838</v>
+        <v>951</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10636,56 +11443,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X115" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y115" t="s">
-        <v>839</v>
+        <v>952</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>55629</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>155367</v>
+      </c>
+      <c r="C116" t="s">
+        <v>953</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>840</v>
+        <v>954</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>841</v>
+        <v>955</v>
       </c>
       <c r="J116" t="s">
-        <v>842</v>
+        <v>956</v>
       </c>
       <c r="K116" t="s">
-        <v>843</v>
+        <v>957</v>
       </c>
       <c r="L116" t="s">
-        <v>844</v>
+        <v>958</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>845</v>
+        <v>959</v>
       </c>
       <c r="O116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -10707,56 +11518,60 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X116" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y116" t="s">
-        <v>846</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>55629</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>155368</v>
+      </c>
+      <c r="C117" t="s">
+        <v>961</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>847</v>
+        <v>962</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>848</v>
+        <v>963</v>
       </c>
       <c r="J117" t="s">
-        <v>849</v>
+        <v>964</v>
       </c>
       <c r="K117" t="s">
-        <v>850</v>
+        <v>965</v>
       </c>
       <c r="L117" t="s">
-        <v>851</v>
+        <v>966</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>852</v>
+        <v>967</v>
       </c>
       <c r="O117" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10778,56 +11593,60 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X117" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y117" t="s">
-        <v>853</v>
+        <v>968</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>55629</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>155369</v>
+      </c>
+      <c r="C118" t="s">
+        <v>969</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>854</v>
+        <v>970</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>855</v>
+        <v>971</v>
       </c>
       <c r="J118" t="s">
-        <v>856</v>
+        <v>972</v>
       </c>
       <c r="K118" t="s">
-        <v>857</v>
+        <v>973</v>
       </c>
       <c r="L118" t="s">
-        <v>858</v>
+        <v>974</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>859</v>
+        <v>975</v>
       </c>
       <c r="O118" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10849,47 +11668,51 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X118" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y118" t="s">
-        <v>860</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>55629</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>84921</v>
+      </c>
+      <c r="C119" t="s">
+        <v>977</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>862</v>
+        <v>979</v>
       </c>
       <c r="J119" t="s">
-        <v>863</v>
+        <v>980</v>
       </c>
       <c r="K119" t="s">
-        <v>864</v>
+        <v>981</v>
       </c>
       <c r="L119" t="s">
-        <v>865</v>
+        <v>982</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
@@ -10906,13 +11729,13 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X119" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y119" t="s">
-        <v>866</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
